--- a/rapport_extraktor/vitrolife_databok.xlsx
+++ b/rapport_extraktor/vitrolife_databok.xlsx
@@ -537,7 +537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -550,6 +550,7 @@
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -574,15 +575,20 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
+          <t>Q4 2024</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
           <t>Q1 2025</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Q2 2025</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Q3 2025</t>
         </is>
@@ -595,12 +601,15 @@
         </is>
       </c>
       <c r="B6" s="6" t="n">
+        <v>959</v>
+      </c>
+      <c r="C6" s="6" t="n">
         <v>842</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="D6" s="6" t="n">
         <v>871</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="E6" s="6" t="n">
         <v>835</v>
       </c>
     </row>
@@ -611,12 +620,15 @@
         </is>
       </c>
       <c r="B7" s="6" t="n">
+        <v>-373</v>
+      </c>
+      <c r="C7" s="6" t="n">
         <v>-359</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="D7" s="6" t="n">
         <v>-366</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="E7" s="6" t="n">
         <v>-343</v>
       </c>
     </row>
@@ -627,12 +639,15 @@
         </is>
       </c>
       <c r="B8" s="8" t="n">
+        <v>586</v>
+      </c>
+      <c r="C8" s="8" t="n">
         <v>483</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="D8" s="8" t="n">
         <v>505</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="E8" s="8" t="n">
         <v>492</v>
       </c>
     </row>
@@ -643,12 +658,15 @@
         </is>
       </c>
       <c r="B9" s="6" t="n">
+        <v>-199</v>
+      </c>
+      <c r="C9" s="6" t="n">
         <v>-183</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="D9" s="6" t="n">
         <v>-203</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="E9" s="6" t="n">
         <v>-191</v>
       </c>
     </row>
@@ -659,12 +677,15 @@
         </is>
       </c>
       <c r="B10" s="6" t="n">
+        <v>-142</v>
+      </c>
+      <c r="C10" s="6" t="n">
         <v>-115</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="D10" s="6" t="n">
         <v>-130</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="E10" s="6" t="n">
         <v>-120</v>
       </c>
     </row>
@@ -675,12 +696,15 @@
         </is>
       </c>
       <c r="B11" s="6" t="n">
+        <v>-28</v>
+      </c>
+      <c r="C11" s="6" t="n">
         <v>-26</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="D11" s="6" t="n">
         <v>-29</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="E11" s="6" t="n">
         <v>-27</v>
       </c>
     </row>
@@ -691,12 +715,15 @@
         </is>
       </c>
       <c r="B12" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="D12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="E12" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -707,12 +734,15 @@
         </is>
       </c>
       <c r="B13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" s="6" t="n">
         <v>-13</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="D13" s="6" t="n">
         <v>-6</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="E13" s="6" t="n">
         <v>-11</v>
       </c>
     </row>
@@ -723,12 +753,15 @@
         </is>
       </c>
       <c r="B14" s="8" t="n">
+        <v>225</v>
+      </c>
+      <c r="C14" s="8" t="n">
         <v>151</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="D14" s="8" t="n">
         <v>137</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="E14" s="8" t="n">
         <v>144</v>
       </c>
     </row>
@@ -740,9 +773,14 @@
       </c>
       <c r="B15" s="6" t="n"/>
       <c r="C15" s="6" t="n">
+        <v>257</v>
+      </c>
+      <c r="D15" s="6" t="n">
         <v>243</v>
       </c>
-      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n">
+        <v>253</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="inlineStr">
@@ -752,9 +790,14 @@
       </c>
       <c r="B16" s="6" t="n"/>
       <c r="C16" s="6" t="n">
+        <v>-107</v>
+      </c>
+      <c r="D16" s="6" t="n">
         <v>-106</v>
       </c>
-      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n">
+        <v>-110</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="inlineStr">
@@ -763,12 +806,15 @@
         </is>
       </c>
       <c r="B17" s="6" t="n">
+        <v>-43</v>
+      </c>
+      <c r="C17" s="6" t="n">
         <v>-10</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="D17" s="6" t="n">
         <v>-5</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="E17" s="6" t="n">
         <v>-13</v>
       </c>
     </row>
@@ -779,44 +825,53 @@
         </is>
       </c>
       <c r="B18" s="8" t="n">
+        <v>182</v>
+      </c>
+      <c r="C18" s="8" t="n">
         <v>141</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="D18" s="8" t="n">
         <v>132</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="E18" s="8" t="n">
         <v>131</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>Inkomstskatter</t>
+          <t>Skatt</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
+        <v>-43</v>
+      </c>
+      <c r="C19" s="6" t="n">
         <v>-41</v>
       </c>
-      <c r="C19" s="6" t="n">
+      <c r="D19" s="6" t="n">
         <v>-32</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="E19" s="6" t="n">
         <v>-29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="inlineStr">
         <is>
-          <t>Nettoresultat</t>
+          <t>Periodens resultat</t>
         </is>
       </c>
       <c r="B20" s="10" t="n">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="C20" s="10" t="n">
         <v>100</v>
       </c>
       <c r="D20" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="E20" s="10" t="n">
         <v>102</v>
       </c>
     </row>
@@ -829,8 +884,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -842,7 +897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -855,6 +910,7 @@
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -879,15 +935,20 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
+          <t>Q4 2024</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
           <t>Q1 2025</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Q2 2025</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Q3 2025</t>
         </is>
@@ -900,28 +961,34 @@
         </is>
       </c>
       <c r="B6" s="6" t="n">
+        <v>10121</v>
+      </c>
+      <c r="C6" s="6" t="n">
         <v>9701</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="D6" s="6" t="n">
         <v>9894</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="E6" s="6" t="n">
         <v>9836</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>Övriga immateriella anläggningstillgångar</t>
+          <t>Övriga immateriella tillgångar</t>
         </is>
       </c>
       <c r="B7" s="6" t="n">
+        <v>4342</v>
+      </c>
+      <c r="C7" s="6" t="n">
         <v>4050</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="D7" s="6" t="n">
         <v>4117</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="E7" s="6" t="n">
         <v>4031</v>
       </c>
     </row>
@@ -932,30 +999,36 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
+        <v>428</v>
+      </c>
+      <c r="C8" s="6" t="n">
         <v>413</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="D8" s="6" t="n">
         <v>422</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="E8" s="6" t="n">
         <v>435</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>Övriga finansiella anläggningstillgångar</t>
+          <t>Övriga finansiella tillgångar</t>
         </is>
       </c>
       <c r="B9" s="6" t="n">
         <v>54</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D9" s="6" t="n">
         <v>87</v>
       </c>
+      <c r="E9" s="6" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
@@ -964,12 +1037,15 @@
         </is>
       </c>
       <c r="B10" s="6" t="n">
+        <v>144</v>
+      </c>
+      <c r="C10" s="6" t="n">
         <v>136</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="D10" s="6" t="n">
         <v>154</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="E10" s="6" t="n">
         <v>155</v>
       </c>
     </row>
@@ -980,12 +1056,15 @@
         </is>
       </c>
       <c r="B11" s="8" t="n">
+        <v>15089</v>
+      </c>
+      <c r="C11" s="8" t="n">
         <v>14353</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="D11" s="8" t="n">
         <v>14674</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="E11" s="8" t="n">
         <v>14544</v>
       </c>
     </row>
@@ -996,12 +1075,15 @@
         </is>
       </c>
       <c r="B12" s="6" t="n">
+        <v>422</v>
+      </c>
+      <c r="C12" s="6" t="n">
         <v>413</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="D12" s="6" t="n">
         <v>430</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="E12" s="6" t="n">
         <v>428</v>
       </c>
     </row>
@@ -1012,12 +1094,15 @@
         </is>
       </c>
       <c r="B13" s="6" t="n">
+        <v>648</v>
+      </c>
+      <c r="C13" s="6" t="n">
         <v>634</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="D13" s="6" t="n">
         <v>635</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="E13" s="6" t="n">
         <v>617</v>
       </c>
     </row>
@@ -1028,12 +1113,15 @@
         </is>
       </c>
       <c r="B14" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="C14" s="6" t="n">
         <v>66</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="D14" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="E14" s="6" t="n">
         <v>46</v>
       </c>
     </row>
@@ -1044,12 +1132,15 @@
         </is>
       </c>
       <c r="B15" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="D15" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="E15" s="6" t="n">
         <v>51</v>
       </c>
     </row>
@@ -1060,12 +1151,15 @@
         </is>
       </c>
       <c r="B16" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="C16" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="D16" s="6" t="n">
         <v>77</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="E16" s="6" t="n">
         <v>58</v>
       </c>
     </row>
@@ -1076,12 +1170,15 @@
         </is>
       </c>
       <c r="B17" s="6" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C17" s="6" t="n">
         <v>1054</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="D17" s="6" t="n">
         <v>921</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="E17" s="6" t="n">
         <v>1109</v>
       </c>
     </row>
@@ -1092,12 +1189,15 @@
         </is>
       </c>
       <c r="B18" s="8" t="n">
+        <v>2357</v>
+      </c>
+      <c r="C18" s="8" t="n">
         <v>2279</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="D18" s="8" t="n">
         <v>2183</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="E18" s="8" t="n">
         <v>2310</v>
       </c>
     </row>
@@ -1108,12 +1208,15 @@
         </is>
       </c>
       <c r="B19" s="10" t="n">
+        <v>17446</v>
+      </c>
+      <c r="C19" s="10" t="n">
         <v>16632</v>
       </c>
-      <c r="C19" s="10" t="n">
+      <c r="D19" s="10" t="n">
         <v>16856</v>
       </c>
-      <c r="D19" s="10" t="n">
+      <c r="E19" s="10" t="n">
         <v>16854</v>
       </c>
     </row>
@@ -1124,12 +1227,15 @@
         </is>
       </c>
       <c r="B20" s="6" t="n">
+        <v>13639</v>
+      </c>
+      <c r="C20" s="6" t="n">
         <v>13125</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="D20" s="6" t="n">
         <v>13281</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="E20" s="6" t="n">
         <v>13300</v>
       </c>
     </row>
@@ -1143,11 +1249,14 @@
         <v>2</v>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="E21" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
@@ -1156,12 +1265,15 @@
         </is>
       </c>
       <c r="B22" s="8" t="n">
+        <v>13641</v>
+      </c>
+      <c r="C22" s="8" t="n">
         <v>13126</v>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="D22" s="8" t="n">
         <v>13283</v>
       </c>
-      <c r="D22" s="8" t="n">
+      <c r="E22" s="8" t="n">
         <v>13302</v>
       </c>
     </row>
@@ -1172,12 +1284,15 @@
         </is>
       </c>
       <c r="B23" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="C23" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="C23" s="6" t="n">
+      <c r="D23" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="E23" s="6" t="n">
         <v>54</v>
       </c>
     </row>
@@ -1188,12 +1303,15 @@
         </is>
       </c>
       <c r="B24" s="6" t="n">
+        <v>1056</v>
+      </c>
+      <c r="C24" s="6" t="n">
         <v>989</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="D24" s="6" t="n">
         <v>998</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="E24" s="6" t="n">
         <v>976</v>
       </c>
     </row>
@@ -1203,162 +1321,203 @@
           <t>Upptagna lån</t>
         </is>
       </c>
-      <c r="B25" s="6" t="n">
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n">
         <v>1710</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="D25" s="6" t="n">
         <v>1758</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="E25" s="6" t="n">
         <v>1879</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="inlineStr">
         <is>
-          <t>Leasingskulder</t>
+          <t>Låneskulder</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="C26" s="6" t="n">
-        <v>82</v>
-      </c>
-      <c r="D26" s="6" t="n">
-        <v>78</v>
-      </c>
+        <v>1837</v>
+      </c>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="inlineStr">
         <is>
+          <t>Leasingskulder</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>82</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
           <t>Övriga skulder</t>
         </is>
       </c>
-      <c r="B27" s="6" t="n">
+      <c r="B28" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="C28" s="6" t="n">
         <v>61</v>
       </c>
-      <c r="C27" s="6" t="n">
+      <c r="D28" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="E28" s="6" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="7" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
         <is>
           <t>Summa långfristiga skulder</t>
         </is>
       </c>
-      <c r="B28" s="8" t="n">
+      <c r="B29" s="8" t="n">
+        <v>3100</v>
+      </c>
+      <c r="C29" s="8" t="n">
         <v>2901</v>
       </c>
-      <c r="C28" s="8" t="n">
+      <c r="D29" s="8" t="n">
         <v>2932</v>
       </c>
-      <c r="D28" s="8" t="n">
+      <c r="E29" s="8" t="n">
         <v>3028</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="inlineStr">
-        <is>
-          <t>Leverantörsskulder</t>
-        </is>
-      </c>
-      <c r="B29" s="6" t="n">
-        <v>149</v>
-      </c>
-      <c r="C29" s="6" t="n">
-        <v>183</v>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>167</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="inlineStr">
         <is>
-          <t>Aktuella skatteskulder</t>
+          <t>Leverantörsskulder</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>34</v>
+        <v>203</v>
       </c>
       <c r="C30" s="6" t="n">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>25</v>
+        <v>183</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="inlineStr">
         <is>
+          <t>Aktuella skatteskulder</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
           <t>Upplupna kostnader och förutbetalda intäkter</t>
         </is>
       </c>
-      <c r="B31" s="6" t="n">
+      <c r="B32" s="6" t="n">
+        <v>216</v>
+      </c>
+      <c r="C32" s="6" t="n">
         <v>190</v>
       </c>
-      <c r="C31" s="6" t="n">
+      <c r="D32" s="6" t="n">
         <v>207</v>
       </c>
-      <c r="D31" s="6" t="n">
+      <c r="E32" s="6" t="n">
         <v>208</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="7" t="inlineStr">
-        <is>
-          <t>Summa kortfristiga skulder</t>
-        </is>
-      </c>
-      <c r="B32" s="8" t="n">
-        <v>605</v>
-      </c>
-      <c r="C32" s="8" t="n">
-        <v>641</v>
-      </c>
-      <c r="D32" s="8" t="n">
-        <v>525</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
         <is>
+          <t>Summa kortfristiga skulder</t>
+        </is>
+      </c>
+      <c r="B33" s="8" t="n">
+        <v>705</v>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>605</v>
+      </c>
+      <c r="D33" s="8" t="n">
+        <v>641</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
           <t>Summa skulder</t>
         </is>
       </c>
-      <c r="B33" s="8" t="n">
+      <c r="B34" s="8" t="n">
+        <v>3805</v>
+      </c>
+      <c r="C34" s="8" t="n">
         <v>3505</v>
       </c>
-      <c r="C33" s="8" t="n">
+      <c r="D34" s="8" t="n">
         <v>3573</v>
       </c>
-      <c r="D33" s="8" t="n">
+      <c r="E34" s="8" t="n">
         <v>3553</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="9" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="9" t="inlineStr">
         <is>
           <t>Summa eget kapital och skulder</t>
         </is>
       </c>
-      <c r="B34" s="10" t="n">
+      <c r="B35" s="10" t="n">
+        <v>17446</v>
+      </c>
+      <c r="C35" s="10" t="n">
         <v>16632</v>
       </c>
-      <c r="C34" s="10" t="n">
+      <c r="D35" s="10" t="n">
         <v>16856</v>
       </c>
-      <c r="D34" s="10" t="n">
+      <c r="E35" s="10" t="n">
         <v>16854</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="11" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="11" t="inlineStr">
         <is>
           <t>Källa: Vitrolife AB (publ) kvartalsrapporter</t>
         </is>
@@ -1366,8 +1525,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1379,7 +1538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -1392,6 +1551,7 @@
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1416,15 +1576,20 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
+          <t>Q4 2024</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
           <t>Q1 2025</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Q2 2025</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Q3 2025</t>
         </is>
@@ -1437,28 +1602,34 @@
         </is>
       </c>
       <c r="B6" s="6" t="n">
+        <v>182</v>
+      </c>
+      <c r="C6" s="6" t="n">
         <v>141</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="D6" s="6" t="n">
         <v>132</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="E6" s="6" t="n">
         <v>131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>Justeringar för poster som inte ingår i kassaflödet</t>
+          <t>Justeringar för icke-kassapåverkande poster</t>
         </is>
       </c>
       <c r="B7" s="6" t="n">
+        <v>151</v>
+      </c>
+      <c r="C7" s="6" t="n">
         <v>118</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="D7" s="6" t="n">
         <v>114</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="E7" s="6" t="n">
         <v>117</v>
       </c>
     </row>
@@ -1469,12 +1640,15 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
+        <v>-94</v>
+      </c>
+      <c r="C8" s="6" t="n">
         <v>-78</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="D8" s="6" t="n">
         <v>-72</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="E8" s="6" t="n">
         <v>-30</v>
       </c>
     </row>
@@ -1485,12 +1659,15 @@
         </is>
       </c>
       <c r="B9" s="6" t="n">
+        <v>-11</v>
+      </c>
+      <c r="C9" s="6" t="n">
         <v>-9</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="D9" s="6" t="n">
         <v>-19</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="E9" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1501,12 +1678,15 @@
         </is>
       </c>
       <c r="B10" s="6" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C10" s="6" t="n">
         <v>-26</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="D10" s="6" t="n">
         <v>-51</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="E10" s="6" t="n">
         <v>35</v>
       </c>
     </row>
@@ -1517,12 +1697,15 @@
         </is>
       </c>
       <c r="B11" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" s="6" t="n">
         <v>-76</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="D11" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="E11" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,28 +1716,34 @@
         </is>
       </c>
       <c r="B12" s="8" t="n">
+        <v>268</v>
+      </c>
+      <c r="C12" s="8" t="n">
         <v>69</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="D12" s="8" t="n">
         <v>151</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="E12" s="8" t="n">
         <v>255</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>Förvärv av rörelse, efter avdrag för likvida medel</t>
+          <t>Förvärv av rörelse efter avdrag för förvärvade likvida medel</t>
         </is>
       </c>
       <c r="B13" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="inlineStr">
@@ -1562,13 +1751,14 @@
           <t>Inkråmsförvärv</t>
         </is>
       </c>
-      <c r="B14" s="6" t="n">
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="6" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="inlineStr">
@@ -1576,13 +1766,14 @@
           <t>Kassaflöde från förlust av bestämmande inflytande</t>
         </is>
       </c>
-      <c r="B15" s="6" t="n">
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="E15" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="6" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="inlineStr">
@@ -1591,12 +1782,15 @@
         </is>
       </c>
       <c r="B16" s="6" t="n">
+        <v>-75</v>
+      </c>
+      <c r="C16" s="6" t="n">
         <v>-39</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="D16" s="6" t="n">
         <v>-100</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="E16" s="6" t="n">
         <v>-58</v>
       </c>
     </row>
@@ -1606,200 +1800,261 @@
           <t>Tilläggsköpeskilling</t>
         </is>
       </c>
-      <c r="B17" s="6" t="n">
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n">
         <v>-10</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="D17" s="6" t="n">
         <v>-21</v>
       </c>
-      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>Förvärv av innehav utan bestämmande inflytande</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
         <is>
           <t>Kassaflöde från investeringsverksamheten</t>
         </is>
       </c>
-      <c r="B18" s="8" t="n">
+      <c r="B19" s="8" t="n">
+        <v>-75</v>
+      </c>
+      <c r="C19" s="8" t="n">
         <v>-49</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="D19" s="8" t="n">
         <v>-121</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="E19" s="8" t="n">
         <v>-58</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>Amortering av låneskulder</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="n">
-        <v>-54</v>
-      </c>
-      <c r="C19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>-1841</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>Upptagna lån</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="n">
-        <v>29</v>
-      </c>
+          <t>Amortering av låneskulder</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="n"/>
       <c r="C20" s="6" t="n">
+        <v>-54</v>
+      </c>
+      <c r="D20" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="6" t="n">
-        <v>1870</v>
+      <c r="E20" s="6" t="n">
+        <v>-1841</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>Uppläggningsavgifter lån</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="n"/>
+          <t>Återbetalning av lån</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="C21" s="6" t="n"/>
-      <c r="D21" s="6" t="n">
-        <v>-11</v>
-      </c>
+      <c r="D21" s="6" t="n"/>
+      <c r="E21" s="6" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>Förändring i checkkredit/kreditlimit</t>
+          <t>Upptagna lån</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="C22" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="n">
+        <v>1870</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>Amortering av leasingskulder</t>
-        </is>
-      </c>
-      <c r="B23" s="6" t="n">
-        <v>-12</v>
-      </c>
-      <c r="C23" s="6" t="n">
+          <t>Uppläggningsavgifter lån</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n">
         <v>-11</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>-13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>Utbetald utdelning</t>
+          <t>Förändring av checkräkningskredit/kreditlinje</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>Amortering av leasingskulder</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="n">
+        <v>-13</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-12</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-11</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>Utbetald utdelning</t>
+        </is>
+      </c>
+      <c r="B26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n">
         <v>-149</v>
       </c>
-      <c r="D24" s="6" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="inlineStr">
+      <c r="E26" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
         <is>
           <t>Kassaflöde från finansieringsverksamheten</t>
         </is>
       </c>
-      <c r="B25" s="8" t="n">
+      <c r="B27" s="8" t="n">
+        <v>-13</v>
+      </c>
+      <c r="C27" s="8" t="n">
         <v>-36</v>
       </c>
-      <c r="C25" s="8" t="n">
+      <c r="D27" s="8" t="n">
         <v>-161</v>
       </c>
-      <c r="D25" s="8" t="n">
+      <c r="E27" s="8" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="7" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="9" t="inlineStr">
         <is>
           <t>Periodens kassaflöde</t>
         </is>
       </c>
-      <c r="B26" s="8" t="n">
+      <c r="B28" s="10" t="n">
+        <v>180</v>
+      </c>
+      <c r="C28" s="10" t="n">
         <v>-16</v>
       </c>
-      <c r="C26" s="8" t="n">
+      <c r="D28" s="10" t="n">
         <v>-130</v>
       </c>
-      <c r="D26" s="8" t="n">
+      <c r="E28" s="10" t="n">
         <v>203</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="5" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>Likvida medel vid periodens början</t>
         </is>
       </c>
-      <c r="B27" s="6" t="n">
+      <c r="B29" s="6" t="n">
+        <v>925</v>
+      </c>
+      <c r="C29" s="6" t="n">
         <v>1135</v>
       </c>
-      <c r="C27" s="6" t="n">
+      <c r="D29" s="6" t="n">
         <v>1054</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="E29" s="6" t="n">
         <v>921</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>Kursdifferens i likvida medel</t>
         </is>
       </c>
-      <c r="B28" s="6" t="n">
+      <c r="B30" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="C30" s="6" t="n">
         <v>-65</v>
       </c>
-      <c r="C28" s="6" t="n">
+      <c r="D30" s="6" t="n">
         <v>-2</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="E30" s="6" t="n">
         <v>-16</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="9" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>Likvida medel vid periodens slut</t>
         </is>
       </c>
-      <c r="B29" s="10" t="n">
+      <c r="B31" s="6" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C31" s="6" t="n">
         <v>1054</v>
       </c>
-      <c r="C29" s="10" t="n">
+      <c r="D31" s="6" t="n">
         <v>921</v>
       </c>
-      <c r="D29" s="10" t="n">
+      <c r="E31" s="6" t="n">
         <v>1109</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="11" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="11" t="inlineStr">
         <is>
           <t>Källa: Vitrolife AB (publ) kvartalsrapporter</t>
         </is>
@@ -1807,8 +2062,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
